--- a/JS_NOTE.xlsx
+++ b/JS_NOTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJLee\Desktop\Now\Coding_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C2FFD57A-A656-44A3-8DF0-480130A354B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{A76E33DE-EC8D-4A74-B119-67321DCF8F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="580" windowWidth="19070" windowHeight="15420" activeTab="3" xr2:uid="{63C62F9D-7E69-4471-9082-10B6EA15B07C}"/>
+    <workbookView xWindow="17625" yWindow="-12225" windowWidth="19065" windowHeight="15420" firstSheet="1" activeTab="6" xr2:uid="{63C62F9D-7E69-4471-9082-10B6EA15B07C}"/>
   </bookViews>
   <sheets>
     <sheet name="작성 규칙" sheetId="1" r:id="rId1"/>
@@ -1635,10 +1635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>func.apply(p_this, [p1, p2, .. p])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>// p_this와 하나 이상의 p로 새로운 함수를 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1713,9 +1709,6 @@
   </si>
   <si>
     <t>str.startsWith('s', n)</t>
-  </si>
-  <si>
-    <t>str.endsWith('s'))</t>
   </si>
   <si>
     <t>str의 마지막과 's' 와의 일치 여부를 true/false 로 반환</t>
@@ -2716,6 +2709,14 @@
   </si>
   <si>
     <t>str.replace('r1/s1', 's2') - str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.endsWith('s')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func.apply(p_this, [p1, p2, ...p])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2878,8 +2879,19 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7AD80C4C-2FAF-4492-A3BF-E004261E4C19}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" diskRevisions="1" revisionId="2" version="2">
   <header guid="{7AD80C4C-2FAF-4492-A3BF-E004261E4C19}" dateTime="2021-04-13T00:31:11" maxSheetId="8" userName="GJLee" r:id="rId1">
+    <sheetIdMap count="7">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" dateTime="2021-04-13T01:02:13" maxSheetId="8" userName="GJLee" r:id="rId2" minRId="1" maxRId="2">
     <sheetIdMap count="7">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2897,8 +2909,42 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="4">
+    <oc r="D157" t="inlineStr">
+      <is>
+        <t>str.endsWith('s'))</t>
+      </is>
+    </oc>
+    <nc r="D157" t="inlineStr">
+      <is>
+        <t>str.endsWith('s')</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="7">
+    <oc r="D30" t="inlineStr">
+      <is>
+        <t>func.apply(p_this, [p1, p2, .. p])</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D30" t="inlineStr">
+      <is>
+        <t>func.apply(p_this, [p1, p2, ...p])</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" name="GJLee" id="-948435165" dateTime="2021-04-13T00:58:35"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3181,30 +3227,30 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C2" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C3" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C4" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C5" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="39" x14ac:dyDescent="0.45">
       <c r="C6" s="15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.45">
@@ -3213,16 +3259,16 @@
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C8" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C9" s="15" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.45">
@@ -3231,28 +3277,28 @@
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C11" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C12" s="15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C14" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C16" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>403</v>
@@ -3260,7 +3306,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>429</v>
@@ -3268,7 +3314,7 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>431</v>
@@ -3286,43 +3332,43 @@
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C22" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D23" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D24" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C26" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D27" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D28" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C30" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>408</v>
@@ -3330,7 +3376,7 @@
     </row>
     <row r="33" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C33" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>404</v>
@@ -3338,7 +3384,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C34" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>430</v>
@@ -3354,23 +3400,23 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C37" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C38" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C40" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>408</v>
@@ -3386,7 +3432,7 @@
     </row>
     <row r="43" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C43" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>405</v>
@@ -3402,7 +3448,7 @@
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C45" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>436</v>
@@ -3424,21 +3470,21 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C49" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D50" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.45">
@@ -3447,65 +3493,65 @@
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C53" s="13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C54" s="13" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C55" s="13"/>
       <c r="D55" s="13" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C57" s="13"/>
       <c r="D57" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C60" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D61" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D62" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C64" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>408</v>
@@ -3513,7 +3559,7 @@
     </row>
     <row r="67" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C67" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>406</v>
@@ -3521,39 +3567,39 @@
     </row>
     <row r="68" spans="3:4" ht="26" x14ac:dyDescent="0.45">
       <c r="C68" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C69" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C71" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C72" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C74" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>408</v>
@@ -3561,7 +3607,7 @@
     </row>
     <row r="77" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C77" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>407</v>
@@ -3569,33 +3615,33 @@
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C78" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C80" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D81" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D82" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C85" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>414</v>
@@ -3603,101 +3649,101 @@
     </row>
     <row r="86" spans="3:4" ht="26" x14ac:dyDescent="0.45">
       <c r="C86" s="15" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C88" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D89" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D90" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="93" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C93" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C94" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D95" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D96" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C98" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>632</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C102" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C103" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C104" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C105" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E106" s="13"/>
     </row>
@@ -3705,10 +3751,10 @@
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E107" s="13"/>
     </row>
@@ -3716,10 +3762,10 @@
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E108" s="13"/>
     </row>
@@ -3727,10 +3773,10 @@
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E109" s="13"/>
     </row>
@@ -3738,10 +3784,10 @@
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E110" s="13"/>
     </row>
@@ -3782,8 +3828,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -3799,28 +3845,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -3834,16 +3880,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -3851,11 +3897,11 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3866,11 +3912,11 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>353</v>
@@ -3891,13 +3937,13 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="H10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="7"/>
       <c r="H11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -3945,13 +3991,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D25" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
@@ -3973,13 +4019,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.45">
@@ -3999,13 +4045,13 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.45">
@@ -4013,13 +4059,13 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D39" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D40" s="4"/>
       <c r="E40" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.45">
@@ -4033,7 +4079,7 @@
     <row r="43" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.45">
@@ -4041,7 +4087,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D45" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.45">
@@ -4077,7 +4123,7 @@
     <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D51" s="4"/>
       <c r="E51" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.45">
@@ -4105,7 +4151,7 @@
     <row r="57" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D57" s="4"/>
       <c r="E57" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.45">
@@ -4166,13 +4212,13 @@
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D69" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D70" s="4"/>
       <c r="E70" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.45">
@@ -4204,7 +4250,7 @@
     <row r="76" spans="3:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D76" s="4"/>
       <c r="E76" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.45">
@@ -4212,13 +4258,13 @@
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D78" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79" spans="3:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D79" s="4"/>
       <c r="E79" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.45">
@@ -4282,7 +4328,7 @@
     <row r="91" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D91" s="4"/>
       <c r="E91" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.45">
@@ -4296,7 +4342,7 @@
     <row r="94" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D94" s="4"/>
       <c r="E94" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.45">
@@ -4316,7 +4362,7 @@
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C98" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>26</v>
@@ -4363,7 +4409,7 @@
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D106" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.45">
@@ -4380,7 +4426,7 @@
     <row r="109" spans="3:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D109" s="4"/>
       <c r="E109" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="110" spans="3:5" ht="26" x14ac:dyDescent="0.45">
@@ -4392,7 +4438,7 @@
     <row r="111" spans="3:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D111" s="4"/>
       <c r="E111" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.45">
@@ -4424,7 +4470,7 @@
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C117" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>18</v>
@@ -4452,7 +4498,7 @@
     <row r="122" spans="3:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.45">
@@ -4499,7 +4545,7 @@
     <row r="132" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D132" s="4"/>
       <c r="E132" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.45">
@@ -4527,7 +4573,7 @@
     <row r="138" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D138" s="4"/>
       <c r="E138" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.45">
@@ -4535,13 +4581,13 @@
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D140" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.45">
@@ -4555,7 +4601,7 @@
     <row r="144" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="D144" s="4"/>
       <c r="E144" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.45">
@@ -4611,7 +4657,7 @@
     <row r="155" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D155" s="4"/>
       <c r="E155" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.45">
@@ -4645,7 +4691,7 @@
     <row r="161" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D161" s="4"/>
       <c r="E161" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.45">
@@ -4656,13 +4702,13 @@
         <v>159</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D164" s="4"/>
       <c r="E164" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.45">
@@ -4683,92 +4729,92 @@
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D174" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E175" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E176" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E177" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E178" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D180" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E181" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E182" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E183" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E184" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E185" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E186" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D188" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E189" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E190" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E191" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E192" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4824,7 @@
       <selection activeCell="D143" sqref="D143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:H167" xr:uid="{F2CE0394-FEEA-4EDE-BF1A-1EDE137DA630}"/>
+      <autoFilter ref="A2:H167" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4792,8 +4838,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D71" sqref="D24:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -4809,28 +4855,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -4844,16 +4890,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -4861,11 +4907,11 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4876,11 +4922,11 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>353</v>
@@ -4889,7 +4935,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
       <c r="E8" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>316</v>
@@ -4898,7 +4944,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="7"/>
       <c r="E9" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>318</v>
@@ -4907,13 +4953,13 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="H10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="7"/>
       <c r="H11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -4959,7 +5005,7 @@
     </row>
     <row r="25" spans="2:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E25" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
@@ -5034,7 +5080,7 @@
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D50" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.45">
@@ -5463,27 +5509,27 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D153" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="65" x14ac:dyDescent="0.45">
       <c r="E154" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E155" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E156" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5539,7 @@
       <selection activeCell="E47" sqref="E47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:L115" xr:uid="{4364590A-C8CE-4321-AE9E-D1222DC05940}"/>
+      <autoFilter ref="A2:L115" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5507,8 +5553,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:XFD331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -7578,28 +7624,28 @@
     </row>
     <row r="2" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J2" s="12"/>
       <c r="R2" s="12"/>
@@ -11703,7 +11749,7 @@
     <row r="4" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -13763,11 +13809,11 @@
       <c r="A5" s="1"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -17872,11 +17918,11 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -34263,11 +34309,11 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>353</v>
@@ -52729,7 +52775,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J10" s="12"/>
       <c r="R10" s="12"/>
@@ -54788,7 +54834,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J11" s="12"/>
       <c r="R11" s="12"/>
@@ -56852,14 +56898,14 @@
     <row r="15" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
@@ -56875,7 +56921,7 @@
     <row r="22" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D23" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4" t="s">
@@ -56884,7 +56930,7 @@
     </row>
     <row r="24" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E24" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -56899,7 +56945,7 @@
     </row>
     <row r="28" spans="2:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E28" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -56917,7 +56963,7 @@
     </row>
     <row r="32" spans="2:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E32" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -56925,7 +56971,7 @@
     </row>
     <row r="34" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E34" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="5:5" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
@@ -56945,7 +56991,7 @@
     </row>
     <row r="38" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E38" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -56995,7 +57041,7 @@
     <row r="49" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D50" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4" t="s">
@@ -57004,17 +57050,17 @@
     </row>
     <row r="51" spans="4:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E51" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="52" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E52" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="4:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E53" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -57029,7 +57075,7 @@
     </row>
     <row r="58" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E58" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57050,7 +57096,7 @@
     </row>
     <row r="63" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E63" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57063,13 +57109,13 @@
     </row>
     <row r="67" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="4:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E68" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57095,7 +57141,7 @@
     <row r="74" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D75" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
@@ -57104,7 +57150,7 @@
     </row>
     <row r="76" spans="4:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E76" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57145,16 +57191,16 @@
     <row r="86" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="87" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D87" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="88" spans="4:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E88" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57213,7 +57259,7 @@
     <row r="100" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="101" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D101" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="4" t="s">
@@ -57222,7 +57268,7 @@
     </row>
     <row r="102" spans="4:6" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.45">
       <c r="E102" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57241,7 +57287,7 @@
     <row r="106" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="107" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D107" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="4" t="s">
@@ -57250,7 +57296,7 @@
     </row>
     <row r="108" spans="4:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E108" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57342,7 +57388,7 @@
     <row r="136" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="137" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D137" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="4" t="s">
@@ -57351,13 +57397,13 @@
     </row>
     <row r="138" spans="3:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E138" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="141" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D141" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="4" t="s">
@@ -57366,7 +57412,7 @@
     </row>
     <row r="142" spans="3:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E142" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="143" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57375,7 +57421,7 @@
     <row r="144" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="145" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D145" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="4" t="s">
@@ -57390,7 +57436,7 @@
     <row r="148" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="149" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D149" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="4" t="s">
@@ -57399,7 +57445,7 @@
     </row>
     <row r="150" spans="4:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E150" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57426,7 +57472,7 @@
     <row r="156" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="157" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D157" s="4" t="s">
-        <v>470</v>
+        <v>719</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="4" t="s">
@@ -57435,7 +57481,7 @@
     </row>
     <row r="158" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E158" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -57514,7 +57560,7 @@
     </row>
     <row r="176" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C176" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E176" s="2"/>
     </row>
@@ -57735,7 +57781,7 @@
         <v>158</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>181</v>
@@ -57743,7 +57789,7 @@
     </row>
     <row r="222" spans="3:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="E222" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="224" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -58033,7 +58079,7 @@
         <v>248</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>183</v>
@@ -58047,7 +58093,7 @@
     </row>
     <row r="278" spans="1:6" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.45">
       <c r="E278" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -58267,7 +58313,7 @@
       <selection activeCell="E229" sqref="E229"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:XFD344" xr:uid="{35B907BB-F063-4240-B691-6A8982E20768}"/>
+      <autoFilter ref="A2:XFD344" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -58284,8 +58330,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:J403"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -58300,34 +58346,34 @@
   <sheetData>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -58336,32 +58382,32 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E7" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>353</v>
@@ -58374,7 +58420,7 @@
     </row>
     <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.45">
       <c r="E9" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>318</v>
@@ -58382,17 +58428,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E13" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -58417,159 +58463,159 @@
     </row>
     <row r="19" spans="4:5" ht="39" x14ac:dyDescent="0.45">
       <c r="E19" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E20" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E23" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E24" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E25" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E26" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E27" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E28" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E29" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="4:5" ht="39" x14ac:dyDescent="0.45">
       <c r="E30" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E31" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E34" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E35" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E36" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E37" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E38" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E39" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E40" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E41" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E42" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E43" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E44" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E45" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E46" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E47" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="4:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E48" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E49" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D50" s="4"/>
       <c r="E50" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E51" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
@@ -58664,7 +58710,7 @@
     <row r="75" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B75" s="12"/>
       <c r="C75" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -58691,7 +58737,7 @@
     <row r="79" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B79" s="12"/>
       <c r="D79" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>346</v>
@@ -58700,7 +58746,7 @@
     <row r="80" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B80" s="12"/>
       <c r="E80" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>370</v>
@@ -58733,7 +58779,7 @@
     <row r="85" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B85" s="12"/>
       <c r="C85" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.45">
@@ -58804,7 +58850,7 @@
         <v>376</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -58831,7 +58877,7 @@
     </row>
     <row r="100" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B100" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E100" s="2"/>
     </row>
@@ -58840,7 +58886,7 @@
         <v>158</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>336</v>
@@ -58850,7 +58896,7 @@
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
       <c r="E102" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.45">
@@ -58862,18 +58908,18 @@
         <v>158</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
       <c r="E105" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.45">
@@ -58911,25 +58957,25 @@
     </row>
     <row r="111" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B111" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B112" s="12"/>
       <c r="D112" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="2:5" s="4" customFormat="1" ht="65" x14ac:dyDescent="0.45">
       <c r="B113" s="12"/>
       <c r="E113" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="114" spans="2:5" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.45">
       <c r="B114" s="12"/>
       <c r="E114" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -58938,20 +58984,20 @@
     <row r="116" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B116" s="12"/>
       <c r="D116" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="2:5" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="B117" s="12"/>
       <c r="E117" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="2:5" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.45">
       <c r="B118" s="12"/>
       <c r="E118" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -60000,7 +60046,7 @@
       <selection activeCell="B60" sqref="B60"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:J128" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+      <autoFilter ref="A2:J128" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -60014,8 +60060,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:J382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -60030,34 +60076,34 @@
   <sheetData>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -60066,29 +60112,29 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E7" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>353</v>
@@ -60112,10 +60158,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E10" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -60123,7 +60169,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -60144,7 +60190,7 @@
         <v>395</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -60216,7 +60262,7 @@
     <row r="27" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="12"/>
       <c r="D27" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
@@ -60226,7 +60272,7 @@
     <row r="28" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B28" s="12"/>
       <c r="E28" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>353</v>
@@ -60239,14 +60285,14 @@
     <row r="30" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B31" s="12"/>
       <c r="D31" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4" t="s">
@@ -60256,7 +60302,7 @@
     <row r="32" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B32" s="12"/>
       <c r="E32" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>367</v>
@@ -60268,7 +60314,7 @@
     <row r="34" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -60286,7 +60332,7 @@
       <c r="B36" s="12"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>316</v>
@@ -60366,7 +60412,7 @@
     <row r="46" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B46" s="12"/>
       <c r="E46" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
@@ -60375,31 +60421,31 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B49" s="12"/>
       <c r="D49" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="B50" s="12"/>
       <c r="E50" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="2:5" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.45">
       <c r="B51" s="12"/>
       <c r="E51" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="2:5" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.45">
       <c r="B52" s="12"/>
       <c r="E52" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -60408,13 +60454,13 @@
     <row r="54" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B54" s="12"/>
       <c r="D54" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="2:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.45">
       <c r="B55" s="12"/>
       <c r="E55" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -60423,36 +60469,36 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D57" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:5" ht="26" x14ac:dyDescent="0.45">
       <c r="E58" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="52" x14ac:dyDescent="0.45">
       <c r="E59" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="2:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.45">
       <c r="B60" s="12"/>
       <c r="E60" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="2:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.45">
       <c r="B61" s="12"/>
       <c r="E61" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="2:5" s="4" customFormat="1" ht="117" x14ac:dyDescent="0.45">
       <c r="B62" s="12"/>
       <c r="E62" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -60475,7 +60521,7 @@
     </row>
     <row r="69" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.45">
@@ -60483,7 +60529,7 @@
         <v>158</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>381</v>
@@ -60493,7 +60539,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
       <c r="E71" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.45">
@@ -60627,23 +60673,23 @@
     </row>
     <row r="107" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E107" s="2"/>
       <c r="H107" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -61654,7 +61700,7 @@
       <selection activeCell="E13" sqref="E13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:J107" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+      <autoFilter ref="A2:J107" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -61668,8 +61714,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:J388"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -61682,34 +61728,34 @@
   <sheetData>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -61717,29 +61763,29 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E7" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>353</v>
@@ -61747,7 +61793,7 @@
     </row>
     <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.45">
       <c r="E8" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>316</v>
@@ -61790,7 +61836,7 @@
     <row r="14" spans="1:10" ht="39" x14ac:dyDescent="0.45">
       <c r="D14" s="4"/>
       <c r="E14" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -61834,7 +61880,7 @@
     <row r="22" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4" t="s">
@@ -61845,10 +61891,10 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -61859,7 +61905,7 @@
     <row r="25" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D26" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="4" t="s">
@@ -61868,10 +61914,10 @@
     </row>
     <row r="27" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E27" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -61881,7 +61927,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
-        <v>449</v>
+        <v>720</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>443</v>
@@ -61889,10 +61935,10 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E31" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="26" x14ac:dyDescent="0.45">
@@ -61902,7 +61948,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D35" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>445</v>
@@ -61910,10 +61956,10 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E36" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
@@ -61927,7 +61973,7 @@
     </row>
     <row r="39" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B39" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
@@ -61945,7 +61991,7 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
@@ -62041,18 +62087,18 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D61" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D62" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -62144,23 +62190,23 @@
     </row>
     <row r="113" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E113" s="2"/>
       <c r="H113" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -62919,7 +62965,7 @@
       <selection activeCell="F12" sqref="F12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:J113" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+      <autoFilter ref="A2:J113" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/JS_NOTE.xlsx
+++ b/JS_NOTE.xlsx
@@ -2942,9 +2942,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" name="GJLee" id="-948435165" dateTime="2021-04-13T00:58:35"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/JS_NOTE.xlsx
+++ b/JS_NOTE.xlsx
@@ -2942,7 +2942,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" name="GJLee" id="-948405740" dateTime="2021-04-13T19:09:56"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/JS_NOTE.xlsx
+++ b/JS_NOTE.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJLee\Desktop\Now\Coding_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{A76E33DE-EC8D-4A74-B119-67321DCF8F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{7B61D8B4-CE0D-4FBC-ACD2-820AD95A94B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17625" yWindow="-12225" windowWidth="19065" windowHeight="15420" firstSheet="1" activeTab="6" xr2:uid="{63C62F9D-7E69-4471-9082-10B6EA15B07C}"/>
+    <workbookView xWindow="5540" yWindow="580" windowWidth="19070" windowHeight="15420" xr2:uid="{63C62F9D-7E69-4471-9082-10B6EA15B07C}"/>
   </bookViews>
   <sheets>
-    <sheet name="작성 규칙" sheetId="1" r:id="rId1"/>
-    <sheet name="arr" sheetId="2" r:id="rId2"/>
-    <sheet name="obj" sheetId="3" r:id="rId3"/>
-    <sheet name="str" sheetId="4" r:id="rId4"/>
-    <sheet name="map_정리" sheetId="5" r:id="rId5"/>
-    <sheet name="set_정리" sheetId="6" r:id="rId6"/>
-    <sheet name="func_정리" sheetId="7" r:id="rId7"/>
+    <sheet name="알고리즘" sheetId="8" r:id="rId1"/>
+    <sheet name="작성 규칙" sheetId="1" r:id="rId2"/>
+    <sheet name="arr" sheetId="2" r:id="rId3"/>
+    <sheet name="obj" sheetId="3" r:id="rId4"/>
+    <sheet name="str" sheetId="4" r:id="rId5"/>
+    <sheet name="map_정리" sheetId="5" r:id="rId6"/>
+    <sheet name="set_정리" sheetId="6" r:id="rId7"/>
+    <sheet name="func_정리" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">arr!$A$2:$H$167</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">func_정리!$A$2:$J$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">map_정리!$A$2:$J$128</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">obj!$A$2:$L$115</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">set_정리!$A$2:$J$107</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">str!$2:$344</definedName>
-    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="1" hidden="1">arr!$A$2:$H$167</definedName>
-    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="6" hidden="1">func_정리!$A$2:$J$113</definedName>
-    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="4" hidden="1">map_정리!$A$2:$J$128</definedName>
-    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="2" hidden="1">obj!$A$2:$L$115</definedName>
-    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="5" hidden="1">set_정리!$A$2:$J$107</definedName>
-    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="3" hidden="1">str!$2:$344</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">arr!$A$2:$H$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">func_정리!$A$2:$J$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">map_정리!$A$2:$J$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">obj!$A$2:$L$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">set_정리!$A$2:$J$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">str!$2:$344</definedName>
+    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="2" hidden="1">arr!$A$2:$H$167</definedName>
+    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="7" hidden="1">func_정리!$A$2:$J$113</definedName>
+    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="5" hidden="1">map_정리!$A$2:$J$128</definedName>
+    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="3" hidden="1">obj!$A$2:$L$115</definedName>
+    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="6" hidden="1">set_정리!$A$2:$J$107</definedName>
+    <definedName name="Z_A8B62025_A057_4837_8155_776D3DEEFC19_.wvu.FilterData" localSheetId="4" hidden="1">str!$2:$344</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="782">
   <si>
     <t>2.1. 직접 수정</t>
   </si>
@@ -2717,6 +2718,190 @@
   </si>
   <si>
     <t>func.apply(p_this, [p1, p2, ...p])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>B Bit Manipulation - set/get/update/clear bits, 2의 곱 / 나누기, 음수로 만들기 etc.</t>
+  </si>
+  <si>
+    <t>B 팩토리얼</t>
+  </si>
+  <si>
+    <t>B 피보나치 수</t>
+  </si>
+  <si>
+    <t>B 소수 판별 (trial division 방식)</t>
+  </si>
+  <si>
+    <t>B 유클리드 호제법 - 최대공약수 (GCD)</t>
+  </si>
+  <si>
+    <t>B 최소 공배수 - LCM</t>
+  </si>
+  <si>
+    <t>B 에라토스테네스의 체 - 특정수 이하의 모든 소수 찾기</t>
+  </si>
+  <si>
+    <t>B 2의 거듭제곱 판별법 - 어떤 수가 2의 거듭제곱인지 판별 (naive 와 bitwise 알고리즘)</t>
+  </si>
+  <si>
+    <t>B 파스칼 삼각형</t>
+  </si>
+  <si>
+    <t>A 자연수 분할</t>
+  </si>
+  <si>
+    <t>A 리우 후이 π 알고리즘 - N-각형을 기반으로 π 근사치 구하기</t>
+  </si>
+  <si>
+    <t>B 카티지언 프로덕트 - 곱집합</t>
+  </si>
+  <si>
+    <t>B Fisher–Yates 셔플 - 유한 시퀀스의 무작위 순열</t>
+  </si>
+  <si>
+    <t>A 멱집합 - 집합의 모든 부분집합</t>
+  </si>
+  <si>
+    <t>A 순열 (반복 유,무)</t>
+  </si>
+  <si>
+    <t>A 조합 (반복 유,무)</t>
+  </si>
+  <si>
+    <t>A 최장 공통 부분수열 (LCS)</t>
+  </si>
+  <si>
+    <t>A 최장 증가 수열</t>
+  </si>
+  <si>
+    <t>A Shortest Common Supersequence (SCS)</t>
+  </si>
+  <si>
+    <t>A 배낭 문제 - "0/1" 과 "Unbound"</t>
+  </si>
+  <si>
+    <t>A 최대 구간합 - "브루트 포스" 과 "동적 계획법" (Kadane's) 버전</t>
+  </si>
+  <si>
+    <t>A 조합 합 - 특정 합을 구성하는 모든 조합 찾기</t>
+  </si>
+  <si>
+    <t>B 해밍 거리 - 심볼이 다른 위치의 갯수</t>
+  </si>
+  <si>
+    <t>A 편집 거리 - 두 시퀀스 간위 최소 편집거리</t>
+  </si>
+  <si>
+    <t>A 커누스-모리스-프랫 알고리즘 (KMP 알고리즘) - 부분 문자열 탐색 (패턴 매칭)</t>
+  </si>
+  <si>
+    <t>A Z 알고리즘 - 부분 문자열 탐색 (패턴 매칭)</t>
+  </si>
+  <si>
+    <t>A 라빈 카프 알고리즘 - 부분 문자열 탐색</t>
+  </si>
+  <si>
+    <t>A 최장 공통 부분 문자열</t>
+  </si>
+  <si>
+    <t>A 정규 표현식 매칭</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>B 크루스칼 알고리즘 - 최소 신장 트리 찾기 (MST) 무방향 가중 그래프</t>
+  </si>
+  <si>
+    <t>A 다익스트라 알고리즘 - 한 점에서 다른 모든 점까지 최단 거리 찾기</t>
+  </si>
+  <si>
+    <t>A 벨만-포드 알고리즘 - 한 점에서 다른 모든 점까지 최단 거리 찾기</t>
+  </si>
+  <si>
+    <t>A 플로이드-워셜 알고리즘 - 모든 종단 간의 최단거리 찾기</t>
+  </si>
+  <si>
+    <t>A 사이클 탐지 - 유방향, 무방향 그래프 (DFS 와 Disjoint Set 에 기반한 버전)</t>
+  </si>
+  <si>
+    <t>A 프림 알고리즘 - 무방향 가중치 그래프에서 최소 신장 트리 (MST) 찾기</t>
+  </si>
+  <si>
+    <t>A 위상 정렬 - DFS 방식</t>
+  </si>
+  <si>
+    <t>A 단절점 - 타잔의 알고리즘 (DFS 기반)</t>
+  </si>
+  <si>
+    <t>A 단절선 - DFS 기반 알고리즘</t>
+  </si>
+  <si>
+    <t>A 오일러 경로 와 오일러 회로 - Fleury의 알고리즘 - 모든 엣지를 한번만 방문</t>
+  </si>
+  <si>
+    <t>A 해밀턴 경로 - 모든 꼭짓점을 한번만 방문</t>
+  </si>
+  <si>
+    <t>A 강결합 컴포넌트 - Kosaraju의 알고리즘</t>
+  </si>
+  <si>
+    <t>A 외판원 문제 - 각 도시를 다 방문하고 다시 출발점으로 돌아오는 최단 경로 찾기</t>
+  </si>
+  <si>
+    <t>동적 계획법(Dynamic Programming) - 이전에 찾은 결과를 이용하여 최종적으로 해결하는 방식입니다.</t>
+  </si>
+  <si>
+    <t>B 점프 게임</t>
+  </si>
+  <si>
+    <t>B Unique Paths</t>
+  </si>
+  <si>
+    <t>B 빗물 담기 문제 - trapping rain water problem</t>
+  </si>
+  <si>
+    <t>A 편집 거리 - 두 시퀀스 간의 최소 편집 거리</t>
+  </si>
+  <si>
+    <t>A 최장 공통 부분 수열 (LCS)</t>
+  </si>
+  <si>
+    <t>A Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>A 0/1 배낭 문제</t>
+  </si>
+  <si>
+    <t>A 최대 구간합</t>
+  </si>
+  <si>
+    <t>A 벨만-포드 알고리즘 - 모든 점 까지의 최단 거리 찾기</t>
+  </si>
+  <si>
+    <t>백트래킹(Backtracking) - 모든 가능한 경우를 고려한다는 점에서 브루트 포스와 유사합니다. 하지만 다음 단계로 넘어갈때 마다 모든 조건을 만족했는지 확인하고 진행합니다. 만약 조건을 만족하지 못했다면 뒤로 돌아갑니다 (백트래킹). 그리고 다른 경로를 선택합니다. 보통 상태를 유지한 DFS 탐색을 많이 사용합니다.</t>
+  </si>
+  <si>
+    <t>A 해밀턴 경로 - 모든 점을 한번씩 방문</t>
+  </si>
+  <si>
+    <t>A N-Queens 문제</t>
+  </si>
+  <si>
+    <t>A 기사의 여행</t>
+  </si>
+  <si>
+    <t>https://github.com/trekhleb/javascript-algorithms/blob/master/README.ko-KR.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2805,7 +2990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2860,6 +3045,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2876,75 +3067,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" diskRevisions="1" revisionId="2" version="2">
-  <header guid="{7AD80C4C-2FAF-4492-A3BF-E004261E4C19}" dateTime="2021-04-13T00:31:11" maxSheetId="8" userName="GJLee" r:id="rId1">
-    <sheetIdMap count="7">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" dateTime="2021-04-13T01:02:13" maxSheetId="8" userName="GJLee" r:id="rId2" minRId="1" maxRId="2">
-    <sheetIdMap count="7">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="4">
-    <oc r="D157" t="inlineStr">
-      <is>
-        <t>str.endsWith('s'))</t>
-      </is>
-    </oc>
-    <nc r="D157" t="inlineStr">
-      <is>
-        <t>str.endsWith('s')</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="7">
-    <oc r="D30" t="inlineStr">
-      <is>
-        <t>func.apply(p_this, [p1, p2, .. p])</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="D30" t="inlineStr">
-      <is>
-        <t>func.apply(p_this, [p1, p2, ...p])</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{99F3217C-4CA7-4FCE-8FFD-9CE04A1A1106}" name="GJLee" id="-948405740" dateTime="2021-04-13T19:09:56"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3209,12 +3331,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5EA4C-C9AD-4C36-BAFF-8B49B7863471}">
+  <dimension ref="B2:E104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="2.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="17" x14ac:dyDescent="0.45">
+      <c r="B2" s="19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C4" s="14" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="13" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="13" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="13" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="13" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="14" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="13" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="13" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="13" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D22" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D24" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D25" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D26" s="13" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D27" s="13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C28" s="14" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D29" s="13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D30" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D31" s="13" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D32" s="13" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D33" s="13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D34" s="13" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D35" s="13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C36" s="14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D37" s="13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D38" s="13" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D39" s="13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D40" s="13" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D41" s="13" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D42" s="13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D43" s="13" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D44" s="13" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D45" s="13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D46" s="13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D47" s="13" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D48" s="13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D49" s="13" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C51" s="14" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D52" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D53" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D54" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D55" s="13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D56" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D57" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D58" s="13" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D59" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D60" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D61" s="13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D62" s="13" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D63" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D64" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D65" s="13" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D66" s="13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C67" s="14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D68" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D69" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D70" s="13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D71" s="13" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D72" s="13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D73" s="13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E104" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0EBF02D7-181D-4FDC-8D72-08D573A455B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B96F985-D1D8-4833-A2E1-018714686175}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -3823,13 +4325,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -4833,13 +5335,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D71" sqref="D24:D71"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -5548,13 +6050,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:XFD331"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -58325,13 +58827,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:J403"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:D97"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -60055,13 +60557,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:J382"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -61709,13 +62211,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ADD8A4-0FD8-498B-B07F-ED7D7F9604AB}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
